--- a/QuanLyNhanSu/Uploads/Excels/Luongs.xlsx
+++ b/QuanLyNhanSu/Uploads/Excels/Luongs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A02ED5-E2EC-4C67-AFD4-370BB9BA594E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A89DE81-4068-4E99-A079-81654778D0CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2010" yWindow="0" windowWidth="14160" windowHeight="15480" xr2:uid="{7B2CCE44-DF9D-4F55-BC45-D291AE79B9B2}"/>
+    <workbookView xWindow="11715" yWindow="0" windowWidth="14160" windowHeight="15480" xr2:uid="{7B2CCE44-DF9D-4F55-BC45-D291AE79B9B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>IDNhanVien</t>
   </si>
@@ -59,16 +59,31 @@
   </si>
   <si>
     <t>QL00007</t>
+  </si>
+  <si>
+    <t>TT00008</t>
+  </si>
+  <si>
+    <t>TT00009</t>
+  </si>
+  <si>
+    <t>TT00010</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -411,15 +426,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A4A17FB-A7B0-4886-B83B-8C15143DD660}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -507,7 +522,59 @@
         <v>500000</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1">
+        <v>44538</v>
+      </c>
+      <c r="C6">
+        <v>150000</v>
+      </c>
+      <c r="D6">
+        <v>25</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1">
+        <v>44539</v>
+      </c>
+      <c r="C7">
+        <v>150000</v>
+      </c>
+      <c r="D7">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1">
+        <v>44531</v>
+      </c>
+      <c r="C8">
+        <v>150000</v>
+      </c>
+      <c r="D8">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>500000</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>